--- a/static/needs.xlsx
+++ b/static/needs.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Потребность в материалах на 29.06.2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Потребность в материалах на 11.07.2018</t>
   </si>
   <si>
     <t>#</t>
@@ -25,61 +25,64 @@
     <t>Количество</t>
   </si>
   <si>
+    <t>Дверная ручка</t>
+  </si>
+  <si>
+    <t>3 штук</t>
+  </si>
+  <si>
+    <t>Офисное кресло</t>
+  </si>
+  <si>
+    <t>1 штук</t>
+  </si>
+  <si>
+    <t>Дырокол</t>
+  </si>
+  <si>
+    <t>2 штук</t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике</t>
+  </si>
+  <si>
+    <t>Карандаши</t>
+  </si>
+  <si>
+    <t>15 штук</t>
+  </si>
+  <si>
+    <t>Бумага А3</t>
+  </si>
+  <si>
+    <t>2 упаковок</t>
+  </si>
+  <si>
+    <t>Бумага А4</t>
+  </si>
+  <si>
+    <t>10 упаковок</t>
+  </si>
+  <si>
+    <t>Дверной замок</t>
+  </si>
+  <si>
+    <t>Скоросшиватели</t>
+  </si>
+  <si>
+    <t>5 штук</t>
+  </si>
+  <si>
+    <t>Дверца шкафа</t>
+  </si>
+  <si>
     <t>Лампа в потолочном светильнике</t>
   </si>
   <si>
-    <t>1 штук</t>
-  </si>
-  <si>
-    <t>Выключатель</t>
-  </si>
-  <si>
-    <t>Починить тумбу</t>
-  </si>
-  <si>
-    <t>Офисное кресло</t>
-  </si>
-  <si>
-    <t>Дырокол</t>
-  </si>
-  <si>
-    <t>2 штук</t>
-  </si>
-  <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
-    <t>Лампа в настенном светильнике</t>
-  </si>
-  <si>
-    <t>Карандаши</t>
-  </si>
-  <si>
-    <t>15 штук</t>
-  </si>
-  <si>
-    <t>Бумага А3</t>
-  </si>
-  <si>
-    <t>2 упаковок</t>
-  </si>
-  <si>
-    <t>Бумага А4</t>
-  </si>
-  <si>
-    <t>10 упаковок</t>
-  </si>
-  <si>
-    <t>Дверной замок</t>
-  </si>
-  <si>
-    <t>Скоросшиватели</t>
-  </si>
-  <si>
-    <t>5 штук</t>
-  </si>
-  <si>
-    <t>Дверная ручка</t>
+    <t>Жалюзи</t>
   </si>
   <si>
     <t>Шариковые ручки</t>
@@ -200,7 +203,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -208,10 +211,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -219,10 +222,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -230,10 +233,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -241,10 +244,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -252,10 +255,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -263,10 +266,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -274,10 +277,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -285,10 +288,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -296,10 +299,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -307,10 +310,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -318,10 +321,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -329,10 +332,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
